--- a/biology/Zoologie/Hylarana_garoensis/Hylarana_garoensis.xlsx
+++ b/biology/Zoologie/Hylarana_garoensis/Hylarana_garoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Hylarana" garoensis est une espèce d'amphibiens de la famille des Ranidae dont la position taxonomique est incertaine (incertae sedis)[1].
-Depuis la révision du genre Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015[2], cette espèce a été exclue de ce genre sans qu'il soit possible de la placée dans un autre de manière certaine. Elle est rapprochée de Hydrophylax ou Indosylvirana.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Hylarana" garoensis est une espèce d'amphibiens de la famille des Ranidae dont la position taxonomique est incertaine (incertae sedis).
+Depuis la révision du genre Hylarana par Oliver, Prendini, Kraus et Raxworthy en 2015, cette espèce a été exclue de ce genre sans qu'il soit possible de la placée dans un autre de manière certaine. Elle est rapprochée de Hydrophylax ou Indosylvirana.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de l'Inde[1]. Elle se rencontre dans les États du Nagaland, du Meghalaya, du Mizoram, du Manipur, d'Arunachal Pradesh et d'Assam.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de l'Inde. Elle se rencontre dans les États du Nagaland, du Meghalaya, du Mizoram, du Manipur, d'Arunachal Pradesh et d'Assam.
 Sa présence est incertaine au Népal.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylarana garoensis mesure en moyenne jusqu'à 32 mm. Son dos présente une surface granuleuse de couleur brun-gris tandis que le ventre est lisse et de couleur blanche[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylarana garoensis mesure en moyenne jusqu'à 32 mm. Son dos présente une surface granuleuse de couleur brun-gris tandis que le ventre est lisse et de couleur blanche.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de garo et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, les Garo Hills.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1920 : A monograph of the South Asian, Papuan, Melanesian and Australian frogs of the genus Rana. Records of the Indian Museum, vol. 20, p. 1-226 (texte intégral).</t>
         </is>
